--- a/SchedulingData/static6/pso/scheduling1_4.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.08</v>
+        <v>39.24</v>
       </c>
       <c r="E2" t="n">
-        <v>27.492</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="3">
@@ -485,112 +485,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32.08</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>98.86</v>
+        <v>63.82</v>
       </c>
       <c r="E3" t="n">
-        <v>23.904</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>63.82</v>
       </c>
       <c r="D4" t="n">
-        <v>89.40000000000001</v>
+        <v>133.02</v>
       </c>
       <c r="E4" t="n">
-        <v>24.72</v>
+        <v>21.988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>133.02</v>
       </c>
       <c r="D5" t="n">
-        <v>56.84</v>
+        <v>172.02</v>
       </c>
       <c r="E5" t="n">
-        <v>26.516</v>
+        <v>19.228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>98.86</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>158.52</v>
+        <v>42.4</v>
       </c>
       <c r="E6" t="n">
-        <v>19.068</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>158.52</v>
+        <v>42.4</v>
       </c>
       <c r="D7" t="n">
-        <v>211.94</v>
+        <v>105.84</v>
       </c>
       <c r="E7" t="n">
-        <v>14.856</v>
+        <v>22.236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>211.94</v>
+        <v>105.84</v>
       </c>
       <c r="D8" t="n">
-        <v>291.04</v>
+        <v>169.78</v>
       </c>
       <c r="E8" t="n">
-        <v>11.556</v>
+        <v>17.972</v>
       </c>
     </row>
     <row r="9">
@@ -599,131 +599,131 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>291.04</v>
+        <v>172.02</v>
       </c>
       <c r="D9" t="n">
-        <v>353.54</v>
+        <v>247.86</v>
       </c>
       <c r="E9" t="n">
-        <v>8.436</v>
+        <v>15.224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>353.54</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>415.44</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>3.876</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>89.40000000000001</v>
+        <v>169.78</v>
       </c>
       <c r="D11" t="n">
-        <v>126.72</v>
+        <v>223.16</v>
       </c>
       <c r="E11" t="n">
-        <v>22.128</v>
+        <v>15.244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>77.84</v>
+        <v>64.42</v>
       </c>
       <c r="E12" t="n">
-        <v>25.856</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>415.44</v>
+        <v>64.42</v>
       </c>
       <c r="D13" t="n">
-        <v>503.26</v>
+        <v>138.52</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6840000000000001</v>
+        <v>20.448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>503.26</v>
+        <v>138.52</v>
       </c>
       <c r="D14" t="n">
-        <v>598.39</v>
+        <v>209.32</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>14.988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>72.09999999999999</v>
+        <v>147.64</v>
       </c>
       <c r="E15" t="n">
-        <v>24.96</v>
+        <v>22.456</v>
       </c>
     </row>
     <row r="16">
@@ -732,169 +732,169 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>56.84</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>144.74</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>22.796</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>126.72</v>
+        <v>223.16</v>
       </c>
       <c r="D17" t="n">
-        <v>193.98</v>
+        <v>275.36</v>
       </c>
       <c r="E17" t="n">
-        <v>17.032</v>
+        <v>11.164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>72.09999999999999</v>
+        <v>275.36</v>
       </c>
       <c r="D18" t="n">
-        <v>125.64</v>
+        <v>353.98</v>
       </c>
       <c r="E18" t="n">
-        <v>20.736</v>
+        <v>8.391999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>353.98</v>
       </c>
       <c r="D19" t="n">
-        <v>64.42</v>
+        <v>413.36</v>
       </c>
       <c r="E19" t="n">
-        <v>25.728</v>
+        <v>5.584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>64.42</v>
+        <v>413.36</v>
       </c>
       <c r="D20" t="n">
-        <v>127.22</v>
+        <v>466.36</v>
       </c>
       <c r="E20" t="n">
-        <v>22.048</v>
+        <v>1.924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>144.74</v>
+        <v>466.36</v>
       </c>
       <c r="D21" t="n">
-        <v>221.78</v>
+        <v>529.51</v>
       </c>
       <c r="E21" t="n">
-        <v>19.212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>125.64</v>
+        <v>247.86</v>
       </c>
       <c r="D22" t="n">
-        <v>193.36</v>
+        <v>291.64</v>
       </c>
       <c r="E22" t="n">
-        <v>15.584</v>
+        <v>11.976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>221.78</v>
+        <v>291.64</v>
       </c>
       <c r="D23" t="n">
-        <v>262.22</v>
+        <v>344.86</v>
       </c>
       <c r="E23" t="n">
-        <v>16.308</v>
+        <v>8.784000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>77.84</v>
+        <v>147.64</v>
       </c>
       <c r="D24" t="n">
-        <v>161.8</v>
+        <v>192.14</v>
       </c>
       <c r="E24" t="n">
-        <v>22.06</v>
+        <v>20.136</v>
       </c>
     </row>
     <row r="25">
@@ -903,93 +903,93 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>127.22</v>
+        <v>192.14</v>
       </c>
       <c r="D25" t="n">
-        <v>209.18</v>
+        <v>275.14</v>
       </c>
       <c r="E25" t="n">
-        <v>16.952</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>193.36</v>
+        <v>344.86</v>
       </c>
       <c r="D26" t="n">
-        <v>254.5</v>
+        <v>391.3</v>
       </c>
       <c r="E26" t="n">
-        <v>11.58</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>193.98</v>
+        <v>39.24</v>
       </c>
       <c r="D27" t="n">
-        <v>250.48</v>
+        <v>111.44</v>
       </c>
       <c r="E27" t="n">
-        <v>13.492</v>
+        <v>23.136</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>254.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>317.66</v>
+        <v>139.92</v>
       </c>
       <c r="E28" t="n">
-        <v>7.884</v>
+        <v>19.808</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>161.8</v>
+        <v>275.14</v>
       </c>
       <c r="D29" t="n">
-        <v>215.24</v>
+        <v>328.3</v>
       </c>
       <c r="E29" t="n">
-        <v>18.836</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="30">
@@ -998,264 +998,264 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>250.48</v>
+        <v>209.32</v>
       </c>
       <c r="D30" t="n">
-        <v>334.38</v>
+        <v>259.46</v>
       </c>
       <c r="E30" t="n">
-        <v>11.172</v>
+        <v>12.084</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>262.22</v>
+        <v>259.46</v>
       </c>
       <c r="D31" t="n">
-        <v>300.8</v>
+        <v>326.62</v>
       </c>
       <c r="E31" t="n">
-        <v>13.58</v>
+        <v>6.988</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>317.66</v>
+        <v>139.92</v>
       </c>
       <c r="D32" t="n">
-        <v>376.86</v>
+        <v>193.46</v>
       </c>
       <c r="E32" t="n">
-        <v>5.564</v>
+        <v>16.584</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>334.38</v>
+        <v>111.44</v>
       </c>
       <c r="D33" t="n">
-        <v>411.48</v>
+        <v>176</v>
       </c>
       <c r="E33" t="n">
-        <v>7.092</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>209.18</v>
+        <v>176</v>
       </c>
       <c r="D34" t="n">
-        <v>278.38</v>
+        <v>248.26</v>
       </c>
       <c r="E34" t="n">
-        <v>12.152</v>
+        <v>13.204</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>598.39</v>
+        <v>326.62</v>
       </c>
       <c r="D35" t="n">
-        <v>674.9299999999999</v>
+        <v>385.64</v>
       </c>
       <c r="E35" t="n">
-        <v>26.976</v>
+        <v>4.216</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>300.8</v>
+        <v>385.64</v>
       </c>
       <c r="D36" t="n">
-        <v>369.42</v>
+        <v>462.78</v>
       </c>
       <c r="E36" t="n">
-        <v>10.808</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>376.86</v>
+        <v>462.78</v>
       </c>
       <c r="D37" t="n">
-        <v>442.76</v>
+        <v>563.02</v>
       </c>
       <c r="E37" t="n">
-        <v>0.104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>442.76</v>
+        <v>391.3</v>
       </c>
       <c r="D38" t="n">
-        <v>519.35</v>
+        <v>473.3</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>411.48</v>
+        <v>473.3</v>
       </c>
       <c r="D39" t="n">
-        <v>476.12</v>
+        <v>539.92</v>
       </c>
       <c r="E39" t="n">
-        <v>3.228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>215.24</v>
+        <v>539.92</v>
       </c>
       <c r="D40" t="n">
-        <v>315.28</v>
+        <v>604.6799999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>14.412</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>476.12</v>
+        <v>193.46</v>
       </c>
       <c r="D41" t="n">
-        <v>533.66</v>
+        <v>276</v>
       </c>
       <c r="E41" t="n">
-        <v>0.104</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>533.66</v>
+        <v>276</v>
       </c>
       <c r="D42" t="n">
-        <v>615.15</v>
+        <v>359.9</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>519.35</v>
+        <v>359.9</v>
       </c>
       <c r="D43" t="n">
-        <v>559.4299999999999</v>
+        <v>448.9</v>
       </c>
       <c r="E43" t="n">
-        <v>27.192</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="44">
@@ -1264,93 +1264,93 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>369.42</v>
+        <v>448.9</v>
       </c>
       <c r="D44" t="n">
-        <v>436.72</v>
+        <v>535.2</v>
       </c>
       <c r="E44" t="n">
-        <v>7.168</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>315.28</v>
+        <v>535.2</v>
       </c>
       <c r="D45" t="n">
-        <v>369.16</v>
+        <v>610.6799999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>11.164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>436.72</v>
+        <v>328.3</v>
       </c>
       <c r="D46" t="n">
-        <v>495.06</v>
+        <v>380.74</v>
       </c>
       <c r="E46" t="n">
-        <v>3.944</v>
+        <v>9.596</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>495.06</v>
+        <v>248.26</v>
       </c>
       <c r="D47" t="n">
-        <v>548.86</v>
+        <v>315.34</v>
       </c>
       <c r="E47" t="n">
-        <v>1.184</v>
+        <v>9.616</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>548.86</v>
+        <v>315.34</v>
       </c>
       <c r="D48" t="n">
-        <v>618.39</v>
+        <v>400.88</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>5.192</v>
       </c>
     </row>
     <row r="49">
@@ -1359,74 +1359,74 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>278.38</v>
+        <v>380.74</v>
       </c>
       <c r="D49" t="n">
-        <v>341.28</v>
+        <v>436.68</v>
       </c>
       <c r="E49" t="n">
-        <v>8.492000000000001</v>
+        <v>6.112</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>618.39</v>
+        <v>400.88</v>
       </c>
       <c r="D50" t="n">
-        <v>673.29</v>
+        <v>462.78</v>
       </c>
       <c r="E50" t="n">
-        <v>26.2</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>341.28</v>
+        <v>462.78</v>
       </c>
       <c r="D51" t="n">
-        <v>407.78</v>
+        <v>551.02</v>
       </c>
       <c r="E51" t="n">
-        <v>4.932</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>615.15</v>
+        <v>551.02</v>
       </c>
       <c r="D52" t="n">
-        <v>679.47</v>
+        <v>593.1</v>
       </c>
       <c r="E52" t="n">
-        <v>27.228</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="53">
@@ -1435,17 +1435,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>369.16</v>
+        <v>529.51</v>
       </c>
       <c r="D53" t="n">
-        <v>442.9</v>
+        <v>584.51</v>
       </c>
       <c r="E53" t="n">
-        <v>6.9</v>
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>pond20</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>593.1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>645.02</v>
+      </c>
+      <c r="E54" t="n">
+        <v>24.9</v>
       </c>
     </row>
   </sheetData>
